--- a/results_it/early_February_corr_ranking.xlsx
+++ b/results_it/early_February_corr_ranking.xlsx
@@ -453,729 +453,729 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6270474398086233</v>
+        <v>0.3605229878624364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002725151941366064</v>
+        <v>0.04632803424387467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5913290595941069</v>
+        <v>0.3444911179899116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007297055352789398</v>
+        <v>0.05772533289773238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5913290595941069</v>
+        <v>0.3411365202685746</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007297055352789398</v>
+        <v>0.06036809381474884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5048503368977834</v>
+        <v>-0.3392495162292711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005220771602143783</v>
+        <v>0.06189587326534916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4993772792581142</v>
+        <v>0.3382222271184306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005816249292451102</v>
+        <v>0.06274024375376086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4973457429580012</v>
+        <v>0.3323795576783581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006051502656201353</v>
+        <v>0.06771538119110485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.497345742958001</v>
+        <v>0.3317415316141115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006051502656201353</v>
+        <v>0.06827676401659358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4822032653081915</v>
+        <v>0.3120833952710676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008073057271769695</v>
+        <v>0.08741624706348859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4822032653081915</v>
+        <v>0.3086093034059991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008073057271769695</v>
+        <v>0.0911874462133286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4537094293555269</v>
+        <v>0.3063308903107639</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01343302789089052</v>
+        <v>0.09372714290768634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4231974315459929</v>
+        <v>0.3021807496502597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02217114278451043</v>
+        <v>0.09849079472317733</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3796515771946772</v>
+        <v>0.2976457029231331</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04222203693036688</v>
+        <v>0.1039031720969148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3796515771946771</v>
+        <v>0.2946959524063493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04222203693036688</v>
+        <v>0.1075417865933838</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3777536925898458</v>
+        <v>0.2860825903431112</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04334794597921041</v>
+        <v>0.1187135699102493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3693033351699379</v>
+        <v>0.2642136851286342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04865454778060896</v>
+        <v>0.1509184098790716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3680167146619035</v>
+        <v>-0.2617159050598407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04950576470356848</v>
+        <v>0.154962546630556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3653238702913674</v>
+        <v>0.2581508567930001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05132543538261849</v>
+        <v>0.1608688408226228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3653238702913673</v>
+        <v>0.2534441427626364</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05132543538261862</v>
+        <v>0.1689109017527184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3618026080020599</v>
+        <v>0.2534441427626363</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05378409232094413</v>
+        <v>0.1689109017527184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3543256584081647</v>
+        <v>-0.2450482187753936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05931178883843202</v>
+        <v>0.1839580362827314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.352627975115915</v>
+        <v>0.2429656438313713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06062670554197742</v>
+        <v>0.1878314699428583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.352627975115915</v>
+        <v>-0.2410140430156505</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06062670554197742</v>
+        <v>0.1915127122502941</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3356481116829848</v>
+        <v>0.2283972293668228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07506609147325496</v>
+        <v>0.2165262126966262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3343247508162678</v>
+        <v>0.2265939328154493</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07629388003595426</v>
+        <v>0.2202750442584889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.3233026071543155</v>
+        <v>0.2265939328154492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08712859980834435</v>
+        <v>0.2202750442584889</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3213925388582281</v>
+        <v>-0.2181812343201497</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08911955432901733</v>
+        <v>0.2383453589962284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.309441621862075</v>
+        <v>0.2178362776910218</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1023700639707396</v>
+        <v>0.2391068529374082</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3073302077401323</v>
+        <v>-0.2150383936937326</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104857055558199</v>
+        <v>0.2453432452273334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3041897740182795</v>
+        <v>0.2121162128793137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1086393945556411</v>
+        <v>0.2519710676247462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2941339252820771</v>
+        <v>0.2060484432165273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121436038899798</v>
+        <v>0.2661079687522384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2928442057707462</v>
+        <v>0.2060484432165272</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1231544159592765</v>
+        <v>0.2661079687522384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.288608424954774</v>
+        <v>0.201719179364473</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1289240092560408</v>
+        <v>0.2765044085970394</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2851274919345554</v>
+        <v>0.201719179364473</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1338116902109779</v>
+        <v>0.2765044085970394</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2851274919345552</v>
+        <v>-0.1955710239274904</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1338116902109786</v>
+        <v>0.2917134078381263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2738671359641253</v>
+        <v>0.1950252490930704</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1505476279589484</v>
+        <v>0.293088751583001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2708440129060268</v>
+        <v>-0.1947404483410691</v>
       </c>
       <c r="C37" t="n">
-        <v>0.155286309233803</v>
+        <v>0.2938080787995117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2582623750676513</v>
+        <v>0.1841555547013759</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1761552145240587</v>
+        <v>0.3213366744885267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.2211811584626565</v>
+        <v>0.1829236621629942</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2488879520795963</v>
+        <v>0.3246408301317356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2098521567237716</v>
+        <v>-0.1815369656909765</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2745687548440543</v>
+        <v>0.3283851590221451</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2074134188384564</v>
+        <v>-0.1803809902962131</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2803121960060387</v>
+        <v>0.3315266850655907</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2071770083354989</v>
+        <v>-0.1796737125864555</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2808730248940958</v>
+        <v>0.3334578539333656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2042262229182989</v>
+        <v>-0.1796737125864555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2879334904206605</v>
+        <v>0.3334578539333662</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.2000382095519015</v>
+        <v>-0.1782435584975951</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2981463903769027</v>
+        <v>0.3373837356591348</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1884520654665667</v>
+        <v>-0.1765907673945638</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3275729542234685</v>
+        <v>0.3419556561815837</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.1796376579413576</v>
+        <v>-0.1667208564200347</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3511081700988514</v>
+        <v>0.3700322350133477</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.1790287430953126</v>
+        <v>-0.1651290299583159</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3527704360224657</v>
+        <v>0.3746839548301984</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1790287430953126</v>
+        <v>-0.1651290299583159</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3527704360224657</v>
+        <v>0.3746839548301984</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1727156250495274</v>
+        <v>-0.1638647367526755</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3702799543935499</v>
+        <v>0.378402815501057</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1654108675954916</v>
+        <v>0.1597182430519865</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3911620502120388</v>
+        <v>0.3907497041087664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1653192174199474</v>
+        <v>-0.1555667074375976</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3914282556225122</v>
+        <v>0.4033406640477018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1634443121920214</v>
+        <v>0.14884519509874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3968967988298973</v>
+        <v>0.424206228285434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.13815663380666</v>
+        <v>0.14884519509874</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4747892146519246</v>
+        <v>0.424206228285434</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.126849069326094</v>
+        <v>0.144609844875994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.512009355662848</v>
+        <v>0.4376548825995344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1215873660039035</v>
+        <v>-0.1416670946593298</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5298044955902074</v>
+        <v>0.4471341609259359</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.1147883039462664</v>
+        <v>0.1354290969575013</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5532290821982356</v>
+        <v>0.4675888940810332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1139071587477037</v>
+        <v>0.1339847962310829</v>
       </c>
       <c r="C57" t="n">
-        <v>0.556299507289042</v>
+        <v>0.4723938180541627</v>
       </c>
     </row>
     <row r="58">
@@ -1185,62 +1185,62 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1020553792297433</v>
+        <v>0.1292784363144555</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5983400427077626</v>
+        <v>0.4882280637938858</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.09995202430996436</v>
+        <v>0.1194780879515849</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6059406127878018</v>
+        <v>0.5220500901993838</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.09995202430996433</v>
+        <v>0.1088442962530785</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6059406127878018</v>
+        <v>0.5599932405365791</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.08952821866324201</v>
+        <v>0.09906574432787499</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6441915870061843</v>
+        <v>0.5959625551368439</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.08856903853040994</v>
+        <v>-0.07326509071550744</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6477584159265313</v>
+        <v>0.6952897833800519</v>
       </c>
     </row>
     <row r="63">
@@ -1250,140 +1250,140 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.08599799295978482</v>
+        <v>-0.03728949415016204</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6573566786742598</v>
+        <v>0.8421405660985845</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07722253787848886</v>
+        <v>0.03349841893898106</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6905128492867624</v>
+        <v>0.8580187976610395</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0718964087765212</v>
+        <v>0.03337920156329851</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7109179715755708</v>
+        <v>0.85851903494374</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.07116114210824379</v>
+        <v>0.02899679354573982</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7137506668853796</v>
+        <v>0.8769434576493296</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.05004736720635376</v>
+        <v>0.02899679354573981</v>
       </c>
       <c r="C67" t="n">
-        <v>0.796546160609479</v>
+        <v>0.8769434576493296</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.03775365136875076</v>
+        <v>-0.0213719461673977</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8458347946125281</v>
+        <v>0.9091451932798267</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.03372335247196374</v>
+        <v>0.02106261238163106</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8621275136180958</v>
+        <v>0.9104549277169626</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0232644237145412</v>
+        <v>0.02106261238163099</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9046511970331639</v>
+        <v>0.9104549277169638</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02285740774243269</v>
+        <v>-0.01506699433828753</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9063120271902741</v>
+        <v>0.9358821428278029</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01679756375180978</v>
+        <v>0.009651077063657296</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9310812282555104</v>
+        <v>0.9589049361061299</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01648218138508805</v>
+        <v>-0.002112048456888215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9323722562185529</v>
+        <v>0.9910031383170337</v>
       </c>
     </row>
   </sheetData>
